--- a/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_encapsulation_test_ni_encapsulation_encapsulation_type_logs.xlsx
+++ b/AutomationFramework/results/21102020/excel_logs/network_instance_test_ni_encapsulation_test_ni_encapsulation_encapsulation_type_logs.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:9c117a83-4f24-4e6d-8fd3-7cb4833eed26"&gt;
+          <t xml:space="preserve">&lt;rpc-reply message-id="urn:uuid:8c500938-568f-4ce5-a966-6848f34d150e"&gt;
   &lt;data/&gt;
 &lt;/rpc-reply&gt;
 </t>
